--- a/server/database/firstTimeSetup/Seasons.xlsx
+++ b/server/database/firstTimeSetup/Seasons.xlsx
@@ -62,6 +62,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,7 +158,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C9"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/server/database/firstTimeSetup/Seasons.xlsx
+++ b/server/database/firstTimeSetup/Seasons.xlsx
@@ -55,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,13 +78,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +127,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -166,7 +159,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>110</v>
       </c>
@@ -176,8 +169,9 @@
       <c r="C1" s="1" t="n">
         <v>41122</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>120</v>
       </c>
@@ -188,7 +182,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>130</v>
       </c>
@@ -199,7 +193,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>140</v>
       </c>
@@ -210,7 +204,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>150</v>
       </c>
@@ -221,7 +215,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>160</v>
       </c>
@@ -232,7 +226,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>170</v>
       </c>
@@ -243,7 +237,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>180</v>
       </c>
@@ -254,7 +248,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>190</v>
       </c>
